--- a/src/log/log_201608040126_黄志高.xlsx
+++ b/src/log/log_201608040126_黄志高.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QQ\QQ数据\1977114367\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\黄志高\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EF24B2B1-0F74-4BCE-9667-5CDE18C6B33A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{01ED4B8F-3119-40A1-AD2C-1566FBB54290}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>日期</t>
   </si>
@@ -118,203 +118,196 @@
   </si>
   <si>
     <t>在实体类中添加更多数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、注册github
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、注册github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2、创建仓库
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建服务端接口
+2、创建服务端接口实现类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">创建服务端接口
+2、创建服务端接口实现类
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决已出现的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在测试类中添加数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18:30</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在远程数据库建库
+2、更新测试类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1、创建实体类
 2、创建接口
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、注册github
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1、注册github</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2、创建仓库
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>创建服务端接口
-2、创建服务端接口实现类</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">创建服务端接口
-2、创建服务端接口实现类
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决已出现的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、在远程数据库建库
-2、创立Base模块
-3、更新测试类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、在远程数据库建库
-2、复制Base模块
-3、更新测试类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在测试类中添加数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>17:00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18:30</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:00-16:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +663,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -699,7 +692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43185</v>
       </c>
@@ -707,64 +700,64 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43205</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43224</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43225</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/log/log_201608040126_黄志高.xlsx
+++ b/src/log/log_201608040126_黄志高.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\黄志高\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\新建文件夹\TANWANLANYUE\src\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{01ED4B8F-3119-40A1-AD2C-1566FBB54290}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BCE4BAD-0965-452D-8165-1A9CEBB91AA8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>日期</t>
   </si>
@@ -308,6 +308,53 @@
     <t xml:space="preserve">1、创建实体类
 2、创建接口
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文档及提交日志</t>
+  </si>
+  <si>
+    <t>修改文档及提交日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-16:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与组内其他成员讨论项目立项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助项目经理完成项目立项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解jira与jenkins的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习jira与jenkins的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着手完成配置管理计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -761,10 +808,68 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43261</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43270</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
